--- a/data/categorie_dim.xlsx
+++ b/data/categorie_dim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projet-BI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12B9D1-BF70-4744-B073-6EF17A12BD98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC1C4BD-921A-4618-A734-9399F8E6A8C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3768" xr2:uid="{7EAABC07-AD36-4C15-8F45-77EB691060B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Bicyclette</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Special</t>
   </si>
   <si>
-    <t>VU + remorque</t>
-  </si>
-  <si>
-    <t>VU + caravane</t>
-  </si>
-  <si>
     <t>VU seul 1,5T &lt;= PTAC &lt;= 3,5T avec ou sans remorque</t>
   </si>
   <si>
@@ -165,6 +159,15 @@
   </si>
   <si>
     <t>categorie</t>
+  </si>
+  <si>
+    <t>Non Défini</t>
+  </si>
+  <si>
+    <t>VU (10) + caravane</t>
+  </si>
+  <si>
+    <t>VU (10) + remorque</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C4C5E0-9DCC-47BF-BB3D-5464B7CD834F}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,375 +533,386 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>23</v>
       </c>
     </row>
